--- a/sketch_180419a/Data/Report.xlsx
+++ b/sketch_180419a/Data/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Project\sketch_180419a\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310738E5-B2D0-4CA3-9357-F78F0FEA579C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B7C6D-F196-413E-8C8B-378BF7C1B83C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{30186F50-7732-4A80-BE97-ABAAFB7A0454}"/>
   </bookViews>
